--- a/biology/Botanique/Melrose_(pomme)/Melrose_(pomme).xlsx
+++ b/biology/Botanique/Melrose_(pomme)/Melrose_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melrose est un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Épicarpe: rose à rouge.
 Sa chair jaune est très croquante. Elle a un goût sucré acidulé. On lui trouve souvent des arômes floraux, ce qui pourrait expliquer son nom.
@@ -546,7 +560,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété de pomme américaine a été créée à l'Ohio Agriculture Experiment Station de Wooster en Ohio, propagée dès 1937.
 </t>
@@ -577,7 +593,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivar issu du croisement de Jonathan × Red Delicious.
 </t>
@@ -608,7 +626,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Groupe de floraison: C (mi-saison), 2 jours avant la Golden Delicious.
 La variété Melrose est pollinisée par Discovery, Cortland, Empire, Belfleur Kitika, Golden Delicious, Grenadier, James Grieve, Lobo, Belle fleur jaune, Reinette Ananas.
@@ -640,12 +660,14 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fructification : type semi-spur[1]. Il faut donc éviter une taille trop courte qui risquerait d'enlever les futurs fruits.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fructification : type semi-spur. Il faut donc éviter une taille trop courte qui risquerait d'enlever les futurs fruits.
 Le cultivar est de vigueur moyenne, l'arbre a un port semi-érigé.
-On peut récolter tardivement, dès la mi-octobre et jusqu'en janvier. C'est un fruit de bonne conservation, il peut être gardé jusqu'en avril[2].
-Cette variété a le grand avantage d'être peu sensible au feu bactérien[3]. Elle est cependant sensible aux races communes de tavelure du pommier et au mildiou. De ce fait, elle n'est pas à recommander dans les petits jardins familiaux où les traitements ne sont pas systématiques.
+On peut récolter tardivement, dès la mi-octobre et jusqu'en janvier. C'est un fruit de bonne conservation, il peut être gardé jusqu'en avril.
+Cette variété a le grand avantage d'être peu sensible au feu bactérien. Elle est cependant sensible aux races communes de tavelure du pommier et au mildiou. De ce fait, elle n'est pas à recommander dans les petits jardins familiaux où les traitements ne sont pas systématiques.
 </t>
         </is>
       </c>
